--- a/medicine/Enfance/Caroline_Terrée/Caroline_Terrée.xlsx
+++ b/medicine/Enfance/Caroline_Terrée/Caroline_Terrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caroline_Terr%C3%A9e</t>
+          <t>Caroline_Terrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caroline Terrée est une auteure de romans – dont une série de thrillers : "Série CSU / Agent Kovacs" – et d'ouvrages de non-fiction. Née le 11 février 1968 à Toulouse (France), elle vit depuis 1990 à Belfast (Irlande du Nord), d’où elle travaille comme auteure et graphic designer. Depuis 2000, elle passe environ deux mois par an à Vancouver (Canada), ville dans laquelle se déroule la série CSU.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caroline_Terr%C3%A9e</t>
+          <t>Caroline_Terrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synopsis
-Le CSU est une unité de police spécialisée dans les enquêtes difficiles. Basée à Vancouver et dirigée par Kate Kovacs – un agent du FBI qui se bat aussi contre ses propres démons.
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CSU est une unité de police spécialisée dans les enquêtes difficiles. Basée à Vancouver et dirigée par Kate Kovacs – un agent du FBI qui se bat aussi contre ses propres démons.
 Cette série de thrillers est basée sur le format et le style d'une série télévisée, avec une enquête indépendante au cœur de chaque tome et l'histoire de Kate, explorée et révélée au fil des épisodes.
-Épisodes
-CSU #01 : Portée disparue
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Caroline_Terrée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_Terr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Série CSU / Agent Kovacs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CSU #01 : Portée disparue
 CSU #02 : Le Phénix
 CSU #03 : Le Dragon rouge
 CSU #04 : Mort blanche
@@ -532,44 +584,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Caroline_Terr%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Caroline_Terr%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Graphic Design</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En tant que graphic designer, Caroline Terrée travaille avec des clients basés dans différents pays à travers le monde. Les designs qu'elle crée incluent : identités visuelles, logos, sites web, infographies, présentations, rapports et campagnes promotionnelles. 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caroline_Terr%C3%A9e</t>
+          <t>Caroline_Terrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +605,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Graphic Design</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que graphic designer, Caroline Terrée travaille avec des clients basés dans différents pays à travers le monde. Les designs qu'elle crée incluent : identités visuelles, logos, sites web, infographies, présentations, rapports et campagnes promotionnelles. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caroline_Terrée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_Terr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Photos</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Prendre des photos joue un rôle important dans son processus créatif (écriture et design). Pour l'écriture de "Série CSU / Agent Kovacs", elle fait de nombreuses recherches sur le terrain, à Vancouver et dans sa région – une période pendant laquelle elle prend en photo les décors qu'elle compte utiliser pour l'écriture de scènes et séquences de la série. Cette démarche, proche de celle de repérages pour une série télévisée ou un film, fait partie des multiples aspects visuels de "Série CSU / Agent Kovacs".
 </t>
